--- a/PCComponents/Components.xlsx
+++ b/PCComponents/Components.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,50 +461,25 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>lol</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>kek</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/PCComponents/Components.xlsx
+++ b/PCComponents/Components.xlsx
@@ -461,17 +461,37 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>lo</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fdgb</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sdc</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>dc</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>05/05/2000</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
